--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/120.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/120.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2640302389594697</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.744807164907698</v>
+        <v>-1.750006150065354</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07838233133313123</v>
+        <v>0.07812734023548051</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2697938463368235</v>
+        <v>-0.2686164800340906</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2763863260528374</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.743677806188165</v>
+        <v>-1.750053370638993</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07026039266721967</v>
+        <v>0.06746808274603226</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2381686541516501</v>
+        <v>-0.2362168704412372</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3081615205796861</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.795861262116647</v>
+        <v>-1.803946998342768</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1033022020615637</v>
+        <v>0.1013960649056686</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2666316419221305</v>
+        <v>-0.2653566864338769</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3505181953341562</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.963214910141139</v>
+        <v>-1.972739299844129</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1638547176580012</v>
+        <v>0.1622932906896709</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2937929158792951</v>
+        <v>-0.2933364503341179</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3903083343995475</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.953097115229418</v>
+        <v>-1.961569273149819</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3139531810652348</v>
+        <v>0.3147102842625804</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3131848314537196</v>
+        <v>-0.3124450424667082</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.4143974953911526</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.84756228118445</v>
+        <v>-1.853147688036385</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4230138179419168</v>
+        <v>0.4248664384476877</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3218734170032994</v>
+        <v>-0.3213492686359062</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4171177781642521</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.580963579523706</v>
+        <v>-1.585244124524083</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5917864442042617</v>
+        <v>0.5959670389904363</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3485026724974644</v>
+        <v>-0.3493872712436354</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.4015126679535591</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.130820869156772</v>
+        <v>-1.132856862890174</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6733772993760042</v>
+        <v>0.6796025450007485</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3228508828776271</v>
+        <v>-0.324075469753999</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3727913346963939</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5649003953130043</v>
+        <v>-0.5665798737154321</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6399057827615451</v>
+        <v>0.6460428833154964</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.304916509009527</v>
+        <v>-0.3064716399013722</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3310361578954475</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.08648672750838801</v>
+        <v>-0.0832363780229021</v>
       </c>
       <c r="F11" t="n">
-        <v>0.596546278027075</v>
+        <v>0.6028030040342452</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.255966088356197</v>
+        <v>-0.2580060171374027</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2701975548012939</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5674127581109206</v>
+        <v>0.573083949004967</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5398737195646438</v>
+        <v>0.5491478402273474</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1796639374320248</v>
+        <v>-0.1841372997747614</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1851405264169124</v>
       </c>
       <c r="E13" t="n">
-        <v>1.183904105293397</v>
+        <v>1.190499245411647</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3624250999056894</v>
+        <v>0.3699473372863854</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.07072922208504683</v>
+        <v>-0.0736364354020892</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.07665097050919387</v>
       </c>
       <c r="E14" t="n">
-        <v>1.781812582729798</v>
+        <v>1.787168969799584</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1067760622622743</v>
+        <v>0.1128502020513737</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04960768777663335</v>
+        <v>0.04665482790507326</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.04891083525459322</v>
       </c>
       <c r="E15" t="n">
-        <v>2.447953215055462</v>
+        <v>2.450216654551892</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1288656183302877</v>
+        <v>-0.1197677878091698</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1894341023982586</v>
+        <v>0.1851952689045959</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1885643242332843</v>
       </c>
       <c r="E16" t="n">
-        <v>2.946374239910931</v>
+        <v>2.947442998894294</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.469621869862431</v>
+        <v>-0.4647833350835527</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3597398232847505</v>
+        <v>0.3564989179139924</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3414740144525442</v>
       </c>
       <c r="E17" t="n">
-        <v>3.467306886239243</v>
+        <v>3.467020414759166</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7842541260383468</v>
+        <v>-0.7804812022045891</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5267637143033304</v>
+        <v>0.5230726394638803</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5084975756385473</v>
       </c>
       <c r="E18" t="n">
-        <v>3.947047452163115</v>
+        <v>3.94711356096621</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.114240938742551</v>
+        <v>-1.113501149755539</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6504139344153484</v>
+        <v>0.6466331404859842</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6858825890688964</v>
       </c>
       <c r="E19" t="n">
-        <v>4.210272243837351</v>
+        <v>4.209713467049289</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.487709242663126</v>
+        <v>-1.490905288488927</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8613450888226111</v>
+        <v>0.8585118544042698</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8673809146003617</v>
       </c>
       <c r="E20" t="n">
-        <v>4.472456608872406</v>
+        <v>4.46935106914608</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.842211403181588</v>
+        <v>-1.845253982143062</v>
       </c>
       <c r="G20" t="n">
-        <v>1.048055236991299</v>
+        <v>1.04517635601844</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.043802589881727</v>
       </c>
       <c r="E21" t="n">
-        <v>4.686247756023072</v>
+        <v>4.681749209374395</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.218708906901106</v>
+        <v>-2.222998896016211</v>
       </c>
       <c r="G21" t="n">
-        <v>1.262902550972357</v>
+        <v>1.259362581968552</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.20834005087488</v>
       </c>
       <c r="E22" t="n">
-        <v>4.770682863747005</v>
+        <v>4.765730999591393</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.51579242389364</v>
+        <v>-2.519880151551658</v>
       </c>
       <c r="G22" t="n">
-        <v>1.419969197029589</v>
+        <v>1.416643294626281</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.354533784640608</v>
       </c>
       <c r="E23" t="n">
-        <v>4.841945005444773</v>
+        <v>4.834666741027878</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.719564939337227</v>
+        <v>-2.723764422352858</v>
       </c>
       <c r="G23" t="n">
-        <v>1.545262693104245</v>
+        <v>1.539940934455128</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.479262068624994</v>
       </c>
       <c r="E24" t="n">
-        <v>4.873149934524559</v>
+        <v>4.863647581089267</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.841416842603159</v>
+        <v>-2.847024285722793</v>
       </c>
       <c r="G24" t="n">
-        <v>1.600334474120314</v>
+        <v>1.596519051770281</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.579496121369478</v>
       </c>
       <c r="E25" t="n">
-        <v>4.940358976984976</v>
+        <v>4.929759532222138</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.030768194857389</v>
+        <v>-3.038229832501916</v>
       </c>
       <c r="G25" t="n">
-        <v>1.703259584462166</v>
+        <v>1.699507122876985</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.653561454543884</v>
       </c>
       <c r="E26" t="n">
-        <v>5.036542563430298</v>
+        <v>5.022393705548926</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.156927401448761</v>
+        <v>-3.163921555414261</v>
       </c>
       <c r="G26" t="n">
-        <v>1.734957181526919</v>
+        <v>1.730973339130907</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.699079751803626</v>
       </c>
       <c r="E27" t="n">
-        <v>4.993493140462724</v>
+        <v>4.977707302695199</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.206250864633839</v>
+        <v>-3.215552530631166</v>
       </c>
       <c r="G27" t="n">
-        <v>1.756332361194182</v>
+        <v>1.752164358560978</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.716409622124625</v>
       </c>
       <c r="E28" t="n">
-        <v>5.00727210385059</v>
+        <v>4.989770585240848</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.223443088486246</v>
+        <v>-3.232474810204269</v>
       </c>
       <c r="G28" t="n">
-        <v>1.778930553718696</v>
+        <v>1.774885324576953</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.70618111460953</v>
       </c>
       <c r="E29" t="n">
-        <v>4.986090528535247</v>
+        <v>4.967092117741148</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.139876052307711</v>
+        <v>-3.147432131099515</v>
       </c>
       <c r="G29" t="n">
-        <v>1.715344903275512</v>
+        <v>1.710174250462039</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.671405629407073</v>
       </c>
       <c r="E30" t="n">
-        <v>4.904575226281326</v>
+        <v>4.883538460725143</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.103771201703315</v>
+        <v>-3.110958173011174</v>
       </c>
       <c r="G30" t="n">
-        <v>1.66584672396797</v>
+        <v>1.659229547582021</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.615644172855035</v>
       </c>
       <c r="E31" t="n">
-        <v>4.757439066860381</v>
+        <v>4.735903337242745</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.043636588183583</v>
+        <v>-3.0512084071666</v>
       </c>
       <c r="G31" t="n">
-        <v>1.6073608954778</v>
+        <v>1.599832362020619</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.544941189754994</v>
       </c>
       <c r="E32" t="n">
-        <v>4.729462450998382</v>
+        <v>4.708263561472705</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.928419175513933</v>
+        <v>-2.93597761533442</v>
       </c>
       <c r="G32" t="n">
-        <v>1.556057316238125</v>
+        <v>1.551624878392542</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.46453834345568</v>
       </c>
       <c r="E33" t="n">
-        <v>4.566378329840418</v>
+        <v>4.545144811894072</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.846313616089526</v>
+        <v>-2.854140426170193</v>
       </c>
       <c r="G33" t="n">
-        <v>1.484466204544006</v>
+        <v>1.477118683285774</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.380102670582756</v>
       </c>
       <c r="E34" t="n">
-        <v>4.432311251183632</v>
+        <v>4.410833760273484</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.762549040511267</v>
+        <v>-2.768401243604263</v>
       </c>
       <c r="G34" t="n">
-        <v>1.425314565965526</v>
+        <v>1.417296512561621</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.294551257075002</v>
       </c>
       <c r="E35" t="n">
-        <v>4.223423173595818</v>
+        <v>4.202213265936291</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.740317594442016</v>
+        <v>-2.745810921175356</v>
       </c>
       <c r="G35" t="n">
-        <v>1.34402120040771</v>
+        <v>1.335834726957825</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.210720534567257</v>
       </c>
       <c r="E36" t="n">
-        <v>3.976530404324198</v>
+        <v>3.958490571174972</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.666156896532374</v>
+        <v>-2.669537889604928</v>
       </c>
       <c r="G36" t="n">
-        <v>1.341529528138691</v>
+        <v>1.335167342850393</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.129176472676836</v>
       </c>
       <c r="E37" t="n">
-        <v>3.758059698325906</v>
+        <v>3.739503586904892</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.584598308752618</v>
+        <v>-2.587845510199861</v>
       </c>
       <c r="G37" t="n">
-        <v>1.23047460903532</v>
+        <v>1.225310252298333</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.051019902301537</v>
       </c>
       <c r="E38" t="n">
-        <v>3.544729738777781</v>
+        <v>3.525255974209049</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.486817879908737</v>
+        <v>-2.49045229005982</v>
       </c>
       <c r="G38" t="n">
-        <v>1.151145619340887</v>
+        <v>1.143546255023247</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9749685211621893</v>
       </c>
       <c r="E39" t="n">
-        <v>3.295157988961708</v>
+        <v>3.275772369463768</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.442703633005603</v>
+        <v>-2.444808096570783</v>
       </c>
       <c r="G39" t="n">
-        <v>1.082334225414985</v>
+        <v>1.07263511958953</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9002530300188916</v>
       </c>
       <c r="E40" t="n">
-        <v>3.08740320514123</v>
+        <v>3.067118820725028</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.392539643609751</v>
+        <v>-2.395151728341549</v>
       </c>
       <c r="G40" t="n">
-        <v>1.022362522874308</v>
+        <v>1.014042257799112</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.824579610744189</v>
       </c>
       <c r="E41" t="n">
-        <v>2.866414068548856</v>
+        <v>2.846603463888166</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.376870283257202</v>
+        <v>-2.378371897498923</v>
       </c>
       <c r="G41" t="n">
-        <v>1.010266185927112</v>
+        <v>0.9992275898294301</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.747252780010625</v>
       </c>
       <c r="E42" t="n">
-        <v>2.607709859790996</v>
+        <v>2.586219776727878</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.346187141516127</v>
+        <v>-2.347972866209243</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9485882466589443</v>
+        <v>0.9373639163049491</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6679799173613101</v>
       </c>
       <c r="E43" t="n">
-        <v>2.435592442895887</v>
+        <v>2.415910907803144</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.347167755428698</v>
+        <v>-2.347838287574372</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9002941919791966</v>
+        <v>0.8900709377863486</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5875122550061596</v>
       </c>
       <c r="E44" t="n">
-        <v>2.231006159566588</v>
+        <v>2.210219663050691</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.295990097718727</v>
+        <v>-2.296478830655891</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8000811165833457</v>
+        <v>0.7903127539165536</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5069105565415988</v>
       </c>
       <c r="E45" t="n">
-        <v>2.090650874520206</v>
+        <v>2.06990215446322</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.22222369159897</v>
+        <v>-2.221443765124366</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7399756224173576</v>
+        <v>0.7309627889287899</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4272204855045107</v>
       </c>
       <c r="E46" t="n">
-        <v>1.942584469798571</v>
+        <v>1.92215527562321</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.152522189859972</v>
+        <v>-2.15196262606235</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6849841163764755</v>
+        <v>0.6758721196832658</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3497539128796176</v>
       </c>
       <c r="E47" t="n">
-        <v>1.786153727466345</v>
+        <v>1.767814830684071</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.106190150014926</v>
+        <v>-2.105096206725622</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6430396548320547</v>
+        <v>0.6343573653589601</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.275830387954219</v>
       </c>
       <c r="E48" t="n">
-        <v>1.657131380093328</v>
+        <v>1.63888535043921</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.948445888725975</v>
+        <v>-1.946315453845294</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5423685398719054</v>
+        <v>0.5329779417942254</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2062057312163895</v>
       </c>
       <c r="E49" t="n">
-        <v>1.557791885309799</v>
+        <v>1.539904732015338</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.873387999917191</v>
+        <v>-1.872035130482433</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4779455112561895</v>
+        <v>0.4690570252782045</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1415103615589003</v>
       </c>
       <c r="E50" t="n">
-        <v>1.496062003410628</v>
+        <v>1.480085709329426</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.761299737260687</v>
+        <v>-1.758777371618802</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4221591255590506</v>
+        <v>0.4116934724215223</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.08166948239949268</v>
       </c>
       <c r="E51" t="n">
-        <v>1.373785901991506</v>
+        <v>1.357864698579549</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.701632607419981</v>
+        <v>-1.700015302772844</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3721918885533602</v>
+        <v>0.3623621391408374</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.0262779606551488</v>
       </c>
       <c r="E52" t="n">
-        <v>1.256795356781711</v>
+        <v>1.239854188979151</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.650322732103821</v>
+        <v>-1.648812460756933</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3278328816768643</v>
+        <v>0.3190624471329768</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.02543237208749241</v>
       </c>
       <c r="E53" t="n">
-        <v>1.221798615638711</v>
+        <v>1.203987015262073</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.623410940177382</v>
+        <v>-1.622634948750581</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2928959532604742</v>
+        <v>0.2837571982422024</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.07410083236301145</v>
       </c>
       <c r="E54" t="n">
-        <v>1.126132881484298</v>
+        <v>1.109753638508043</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.496149920201101</v>
+        <v>-1.495226757986458</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2589915813876573</v>
+        <v>0.2505280805724235</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1202065530908502</v>
       </c>
       <c r="E55" t="n">
-        <v>1.066779768458292</v>
+        <v>1.051949360297397</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.470868025074769</v>
+        <v>-1.468970545024041</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2270326971487682</v>
+        <v>0.2193971303913385</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1639139530035408</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9952579136055096</v>
+        <v>0.980152052098387</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.473218822632431</v>
+        <v>-1.471521243010109</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2302027716590678</v>
+        <v>0.2235053202979334</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.205087690145574</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9601887675829304</v>
+        <v>0.9453032687527897</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.475594017486474</v>
+        <v>-1.474993529191698</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1879340621756591</v>
+        <v>0.1814963239695393</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2443220651200014</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9233425539724025</v>
+        <v>0.9082256743314308</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.477208174095368</v>
+        <v>-1.47555309298932</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1750884921267242</v>
+        <v>0.1690489807582934</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2827619412599836</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8923548395313559</v>
+        <v>0.8769987089839464</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.485086926807039</v>
+        <v>-1.484151959448986</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1621500549496325</v>
+        <v>0.1566567282162931</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3214914316625913</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8789693809238148</v>
+        <v>0.865637438966398</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.523937653768543</v>
+        <v>-1.522406920173078</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1526760338585237</v>
+        <v>0.148463958689923</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3616905400813746</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9161036400335407</v>
+        <v>0.9035712997897446</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.519657895777726</v>
+        <v>-1.517332282526004</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1331440305823035</v>
+        <v>0.1320390691591504</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4037118671387225</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8902157475455083</v>
+        <v>0.87785025332857</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.546291086319695</v>
+        <v>-1.545497780682559</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1566346919485949</v>
+        <v>0.1542469049415818</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4474153783561851</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8520394877774814</v>
+        <v>0.8402988791516995</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.594711849538707</v>
+        <v>-1.593321203645038</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1341372366478442</v>
+        <v>0.1324026675761708</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4916371640661769</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8276736717797467</v>
+        <v>0.8158307519110803</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.586242052646988</v>
+        <v>-1.584654654363156</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1267802712748848</v>
+        <v>0.1242760068528954</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5347055322725328</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7987888468847578</v>
+        <v>0.7874023925612686</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.650069315025292</v>
+        <v>-1.650576149182351</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1063070045641267</v>
+        <v>0.1034926583752411</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5742695232228667</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7448110091579934</v>
+        <v>0.7346160873093288</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.671599535576003</v>
+        <v>-1.670822757139641</v>
       </c>
       <c r="G66" t="n">
-        <v>0.09108309162290648</v>
+        <v>0.08874724724689625</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6092356104933814</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7416960253169392</v>
+        <v>0.7302639244389324</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.742080963789605</v>
+        <v>-1.741513529896376</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08260227659733838</v>
+        <v>0.08052299733810016</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6383915809960899</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7319544209752094</v>
+        <v>0.7223214239528492</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.773499172460328</v>
+        <v>-1.772069963098187</v>
       </c>
       <c r="G68" t="n">
-        <v>0.09080921229580016</v>
+        <v>0.0870205482708294</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6610866303619437</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7212526649694859</v>
+        <v>0.7132723880244914</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.819557332978268</v>
+        <v>-1.820482069212032</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1049659402727785</v>
+        <v>0.1012890316054201</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6762432900789133</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6582604197350325</v>
+        <v>0.6483834497488706</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.904965971528725</v>
+        <v>-1.906063849865832</v>
       </c>
       <c r="G70" t="n">
-        <v>0.09584135142659846</v>
+        <v>0.09188269333652722</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6834906444153999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5903257544596947</v>
+        <v>0.5792273456354036</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.971769704065408</v>
+        <v>-1.972692866280051</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08575346287818235</v>
+        <v>0.08131787699435701</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6824024813664252</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4994088359942457</v>
+        <v>0.4875186955519403</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.007795066704178</v>
+        <v>-2.010592098682729</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0906817167469748</v>
+        <v>0.08642871708122034</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6734063033994578</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4457694123785609</v>
+        <v>0.4348929402503731</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.104381602044552</v>
+        <v>-2.106075246619071</v>
       </c>
       <c r="G73" t="n">
-        <v>0.08113843881452873</v>
+        <v>0.07722542727897522</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6568680714086489</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3467620356296263</v>
+        <v>0.3332333412820469</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.124582563447325</v>
+        <v>-2.12594487699681</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0554394286210524</v>
+        <v>0.05099597264162056</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6339470921953849</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2718465955513201</v>
+        <v>0.2576615352301583</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.150812018084679</v>
+        <v>-2.151004048417478</v>
       </c>
       <c r="G75" t="n">
-        <v>0.05664827530621133</v>
+        <v>0.05271322750295961</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6049794592999564</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2422487399943819</v>
+        <v>0.2269665883456735</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.210402807998002</v>
+        <v>-2.210813626988662</v>
       </c>
       <c r="G76" t="n">
-        <v>0.04434731587324645</v>
+        <v>0.04039023180229653</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5706979702999608</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1413462442234013</v>
+        <v>0.1254140226775958</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.205942824817797</v>
+        <v>-2.205749220465877</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03422007684679783</v>
+        <v>0.0323328279203583</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5311586165522834</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1285415986716202</v>
+        <v>0.113689154243027</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.204208255746123</v>
+        <v>-2.202232861748891</v>
       </c>
       <c r="G78" t="n">
-        <v>0.06191022122871953</v>
+        <v>0.05995528948006407</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4872688827269443</v>
       </c>
       <c r="E79" t="n">
-        <v>0.07953766136816592</v>
+        <v>0.06372663929470052</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.218057262984888</v>
+        <v>-2.216191263316585</v>
       </c>
       <c r="G79" t="n">
-        <v>0.05586441378380359</v>
+        <v>0.05379930069665708</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4392665394902318</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1109424908763573</v>
+        <v>0.0945852841678005</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.260937478896921</v>
+        <v>-2.260192180842985</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1001022211879594</v>
+        <v>0.09804340417729812</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3883817025253857</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1216442468820806</v>
+        <v>0.1064832947057124</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.252333890379892</v>
+        <v>-2.251618498689261</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1006200734788673</v>
+        <v>0.09805757034938982</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3352761311603256</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1566268218529884</v>
+        <v>0.143275991666116</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.209507191117982</v>
+        <v>-2.20920183140845</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0783036303770662</v>
+        <v>0.07552706064709178</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2815860129128778</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2666460363745426</v>
+        <v>0.2578047709701966</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.166218517243971</v>
+        <v>-2.165387435147924</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1002722152530599</v>
+        <v>0.09784979982537813</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2283168808539459</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3572953715893705</v>
+        <v>0.3463401985051177</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.07807108542245</v>
+        <v>-2.074882122682695</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1391363213770952</v>
+        <v>0.1363723438000912</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1772149052349189</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4907721930756688</v>
+        <v>0.4822347133617339</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.931078948751103</v>
+        <v>-1.927993871273354</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1196074661391175</v>
+        <v>0.1182490876374351</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1293478370384231</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6721952110159074</v>
+        <v>0.6673724164282421</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.79782563798003</v>
+        <v>-1.793221632050225</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1923790921742122</v>
+        <v>0.1910600641505623</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.08709981475718039</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9101994943095418</v>
+        <v>0.9066689694204644</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.578716667228049</v>
+        <v>-1.573897807688187</v>
       </c>
       <c r="G87" t="n">
-        <v>0.198078615412442</v>
+        <v>0.1963786747614373</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.05176562902207226</v>
       </c>
       <c r="E88" t="n">
-        <v>1.074708102772283</v>
+        <v>1.073206488530562</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.40901930473194</v>
+        <v>-1.404911114825345</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2171384129522721</v>
+        <v>0.2150717258460043</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.02515277710388343</v>
       </c>
       <c r="E89" t="n">
-        <v>1.255043473499703</v>
+        <v>1.256159453056705</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.202359251210327</v>
+        <v>-1.199444167797678</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2512379631961302</v>
+        <v>0.2499031949812672</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.008075214266723972</v>
       </c>
       <c r="E90" t="n">
-        <v>1.358731983115386</v>
+        <v>1.361267727919801</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.937342438766491</v>
+        <v>-0.9338520513650068</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2361116394404305</v>
+        <v>0.2359841438916052</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.002130684782804015</v>
       </c>
       <c r="E91" t="n">
-        <v>1.498161744918443</v>
+        <v>1.50261149697436</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6300852491834297</v>
+        <v>-0.6269718393614969</v>
       </c>
       <c r="G91" t="n">
-        <v>0.162513653366653</v>
+        <v>0.1610765739089055</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.007283335994703297</v>
       </c>
       <c r="E92" t="n">
-        <v>1.51905684875371</v>
+        <v>1.523783628174976</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4238635599870987</v>
+        <v>-0.4196121343404656</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1452199052809223</v>
+        <v>0.1456747968069782</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.02267842899846993</v>
       </c>
       <c r="E93" t="n">
-        <v>1.560475587911616</v>
+        <v>1.566943232481041</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2176465928481317</v>
+        <v>-0.2131543422759396</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1200938380475994</v>
+        <v>0.1208115907669126</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.04517641668048333</v>
       </c>
       <c r="E94" t="n">
-        <v>1.522379603118776</v>
+        <v>1.52785404162266</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.02094614531654868</v>
+        <v>-0.01708350239287679</v>
       </c>
       <c r="G94" t="n">
-        <v>0.112998159848776</v>
+        <v>0.1127384466937613</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.07103183115492755</v>
       </c>
       <c r="E95" t="n">
-        <v>1.532544618604136</v>
+        <v>1.537326488694647</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1299597898999122</v>
+        <v>0.1356372768704437</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05143197593822085</v>
+        <v>0.05121003924211745</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.09505486094496139</v>
       </c>
       <c r="E96" t="n">
-        <v>1.466459425796326</v>
+        <v>1.470208739343264</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2392281973006059</v>
+        <v>0.2463049872699738</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0106961327986386</v>
+        <v>-0.01071816906633681</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1115568005873939</v>
       </c>
       <c r="E97" t="n">
-        <v>1.418327495086072</v>
+        <v>1.421346463760727</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2620483265212233</v>
+        <v>0.2692384458673248</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03255611035526255</v>
+        <v>-0.03321562436708754</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1175465624561301</v>
       </c>
       <c r="E98" t="n">
-        <v>1.285056870104665</v>
+        <v>1.287155037593358</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3138461477649863</v>
+        <v>0.3200981517147927</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0871430934819704</v>
+        <v>-0.08786556825864741</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1143291885301835</v>
       </c>
       <c r="E99" t="n">
-        <v>1.188486074955504</v>
+        <v>1.189896396088189</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3351363303996994</v>
+        <v>0.3411805638254941</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09086722272296784</v>
+        <v>-0.09179589400453524</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1099977565782801</v>
       </c>
       <c r="E100" t="n">
-        <v>1.080010973191945</v>
+        <v>1.081640082982491</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3556615397414604</v>
+        <v>0.3611800507807406</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1409257528376936</v>
+        <v>-0.142063768662394</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1100194634472434</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9734089541827349</v>
+        <v>0.975006583590855</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3275133557952402</v>
+        <v>0.3334143534809965</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1478356967802036</v>
+        <v>-0.1493341629836819</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.123028120007177</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9261191237023769</v>
+        <v>0.9281055358334585</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2975314395727047</v>
+        <v>0.3029555094647068</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1738778431421235</v>
+        <v>-0.1757288896287731</v>
       </c>
     </row>
   </sheetData>
